--- a/story/Activity Story 活动剧情/act5d0 Code of Brawl 喧闹法则 喧騒の掟/level_act5d0_01_end.xlsx
+++ b/story/Activity Story 活动剧情/act5d0 Code of Brawl 喧闹法则 喧騒の掟/level_act5d0_01_end.xlsx
@@ -1052,7 +1052,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Texas"]   "Suspect." Hm. Maybe she chased them out.
+    <t xml:space="preserve">[name="Texas"]   'Suspect.' Hm. Maybe she chased them out.
 </t>
   </si>
   <si>
@@ -1140,15 +1140,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Emperor"]   And you gotta remember the first rule of Penguin Logistics: "Don't sweat the small stuff."
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Exusiai"]   Wasn't the first rule "live for the party" yesterday?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Croissant"]   The one I heard was "carpe diem."
+    <t xml:space="preserve">[name="Emperor"]   And you gotta remember the first rule of Penguin Logistics: 'Don't sweat the small stuff.'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Exusiai"]   Wasn't the first rule 'live for the party' yesterday?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]   The one I heard was 'carpe diem.'
 </t>
   </si>
   <si>
@@ -1176,7 +1176,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Exusiai"]   It's a box of candies. See, it says "Victorian Gumdrops" right here...
+    <t xml:space="preserve">[name="Exusiai"]   It's a box of candies. See, it says 'Victorian Gumdrops' right here...
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act5d0 Code of Brawl 喧闹法则 喧騒の掟/level_act5d0_01_end.xlsx
+++ b/story/Activity Story 活动剧情/act5d0 Code of Brawl 喧闹法则 喧騒の掟/level_act5d0_01_end.xlsx
@@ -804,7 +804,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">7:10 PM \ Clear
+    <t xml:space="preserve">7:10 P.M. \ Clear
 </t>
   </si>
   <si>
@@ -916,7 +916,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Emperor"]   Yeah, you keep talkin'. Don't worry.
+    <t xml:space="preserve">[name="Emperor"]   Yeah, you keep talkin.' Don't worry.
 </t>
   </si>
   <si>
